--- a/medicine/Psychotrope/Somontano_(DO)/Somontano_(DO).xlsx
+++ b/medicine/Psychotrope/Somontano_(DO)/Somontano_(DO).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le somontano est un vin d'Espagne d'appellation d'origine contrôlée, produit dans la province de Huesca. La zone vinicole du Somontano se trouve dans la comarca du même nom, dont le chef-lieu est Barbastro. Zone verte au relief abrupt, la vigne se cultive sur les terrasses des vallées qui versent au Nord de la dépression de l'Èbre.
@@ -514,7 +526,9 @@
           <t>L'environnement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sol est formé de grès et d'argile, tout comme de calcaire et des alluvions. Ce sont des terroirs à faible fertilité et bon drainage. L'altitude varie entre 350 mètres et 650 mètres.
 Le climat, continental, est tempéré abrité par les Pyrénées face aux vents froids du nord. Cependant les gelées d´hiver sont fréquentes tout comme les températures extrêmes en été.
@@ -548,7 +562,9 @@
           <t>Cépages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Rouges: Tempranillo, Cabernet Sauvignon, Merlot, Moristel, Garnacha, Parraleta (nom local du Graciano), Pinot poir et Syrah.
 Blancs: Macabeu ou Alcañón, Grenache  blanc, chardonnay et Gewurztraminer.</t>
@@ -579,7 +595,9 @@
           <t>Communes appartenant à l'AOC</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les communes de la DO Somontano se trouvent dans la comarque du Somontano de Barbastro.
 1982 Excellente
@@ -637,7 +655,9 @@
           <t>Caves</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Bodegas Sommos
 Bodegas Monclús
@@ -690,7 +710,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>4 000 hectares de vignoble
 33,5 hectares de culture écologique
